--- a/02. PLANIFICACION/Backlog Detallado del Producto.xlsx
+++ b/02. PLANIFICACION/Backlog Detallado del Producto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbravo-consultorge\Google Drive\Proyectos\Udemy\Cursos Creados\SCRUM práctico en proyectos de desarrollo de software\Resources\Plantillas de Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\@FRANKY_DOCTORADO\TOPICOS DE SOFTWARE\TrabajoFinal\02. PLANIFICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="7320" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="TrendOffset">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">El ID único asignado a la tarea
 </t>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Sprint</t>
   </si>
@@ -267,13 +267,157 @@
   </si>
   <si>
     <t>OTROS DATOS DE LA HISTORIA DE USUARIO O TAREA</t>
+  </si>
+  <si>
+    <t>Rosmery Hurtado Mesares</t>
+  </si>
+  <si>
+    <t>BravataSoft</t>
+  </si>
+  <si>
+    <t>HU01</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>HU04</t>
+  </si>
+  <si>
+    <t>HU05</t>
+  </si>
+  <si>
+    <t>HU06</t>
+  </si>
+  <si>
+    <t>HU07</t>
+  </si>
+  <si>
+    <t>HU08</t>
+  </si>
+  <si>
+    <t>HU09</t>
+  </si>
+  <si>
+    <t>Analista de sistemas</t>
+  </si>
+  <si>
+    <t>desarrollador web</t>
+  </si>
+  <si>
+    <t>Deseo el analisis del negocio</t>
+  </si>
+  <si>
+    <t>Deseo el analisis del sistema</t>
+  </si>
+  <si>
+    <t>Deseo el analisis del proceso</t>
+  </si>
+  <si>
+    <t>Deseo la implementacion de la base de datos</t>
+  </si>
+  <si>
+    <t>Deseo los prototipos del software</t>
+  </si>
+  <si>
+    <t>Deseo la implementacion de las funcionalidades del software</t>
+  </si>
+  <si>
+    <t>Deseo emitir boletas de ventas</t>
+  </si>
+  <si>
+    <t>Deseo control de sucursales</t>
+  </si>
+  <si>
+    <t>Deseo control de stock de los almacenes</t>
+  </si>
+  <si>
+    <t>Presentar los diferentes diagramas de Uml</t>
+  </si>
+  <si>
+    <t>Presentar los diferentes diagramas de BMP</t>
+  </si>
+  <si>
+    <t>Presentar base de datos</t>
+  </si>
+  <si>
+    <t>Presentar prototipo del sistema</t>
+  </si>
+  <si>
+    <t>Presentar las funcionalidades del sistema</t>
+  </si>
+  <si>
+    <t>Presentar el manejo de las diferentes sucursales</t>
+  </si>
+  <si>
+    <t>Presentar el control de stock de los almacenes de la  tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe poder mostrar los procesos de las funcionalidades del negocio </t>
+  </si>
+  <si>
+    <t>Debe poder mostrar los procesos de las funcionalidades del sistema</t>
+  </si>
+  <si>
+    <t>Debe poder mostrar los procesos de las funcionalidades del proceso</t>
+  </si>
+  <si>
+    <t>Debe poder almacenar la informacion</t>
+  </si>
+  <si>
+    <t>Debe poder mostrar el esquema de la ventana</t>
+  </si>
+  <si>
+    <t>Debe poer mostrar la funcionalidad del sistema</t>
+  </si>
+  <si>
+    <t>Debe emitir los comprobantes de las ventas realizadas y manejo de crud</t>
+  </si>
+  <si>
+    <t>Debe emitir los diferentes reportes de las ventas por sucursal y manejo de crud</t>
+  </si>
+  <si>
+    <t>Debe emitir los reportes del stock de los diferentes almacenes y manejo de crud</t>
+  </si>
+  <si>
+    <t>Realizar los diferentes diagramas del negocio</t>
+  </si>
+  <si>
+    <t>Realizar los diferentes diagramas del sistema</t>
+  </si>
+  <si>
+    <t>Realizar los diagramas de actividad y estado de los procesos</t>
+  </si>
+  <si>
+    <t>Realizar el diagrama de clases y base de datos</t>
+  </si>
+  <si>
+    <t>Realizar los prototipos del sistema</t>
+  </si>
+  <si>
+    <t>Realizar las funcionalidades del sistema</t>
+  </si>
+  <si>
+    <t>Presentar los comprobante de las ventas</t>
+  </si>
+  <si>
+    <t>Realizar las emisiones de los comprobaste de ventas hacia la sunat</t>
+  </si>
+  <si>
+    <t>Realizar las funcionalidades del manejo de las diferentes sucursales</t>
+  </si>
+  <si>
+    <t>Realizar el control de stock de los almacenes de la tienda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,10 +431,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -337,12 +483,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -471,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +730,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -605,26 +760,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,8 +1348,8 @@
   </sheetPr>
   <dimension ref="B1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,12 +1384,14 @@
       </c>
     </row>
     <row r="2" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="53"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="35"/>
@@ -1263,12 +1408,14 @@
       </c>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="53"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="35"/>
@@ -1305,43 +1452,43 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="54" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="55"/>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="44" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="38" t="s">
@@ -1366,139 +1513,355 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+    <row r="7" spans="2:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>30</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+    <row r="8" spans="2:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>40</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+    <row r="9" spans="2:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>25</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>40</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+    <row r="11" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>40</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+    <row r="12" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>40</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="42">
+        <v>3.1</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="8">
+        <v>7</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>10</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+    <row r="15" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>10</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -2106,7 +2469,7 @@
       <formula>$M70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7 I7:N125 B8:H125">
+  <conditionalFormatting sqref="B7:F7 B10:H125 I7:N125 B8:G9">
     <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
       <formula>$M7="Terminado"</formula>
     </cfRule>
@@ -2160,7 +2523,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2210,20 +2573,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="36">
-        <v>43332</v>
+        <v>44903</v>
       </c>
       <c r="D3" s="20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="21">
-        <v>43362</v>
+        <v>44924</v>
       </c>
       <c r="F3" s="17">
         <f>IF(B3="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B3,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="15"/>
@@ -2234,18 +2597,18 @@
       </c>
       <c r="C4" s="19">
         <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
-        <v>43362</v>
+        <v>44924</v>
       </c>
       <c r="D4" s="20">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E4" s="21">
         <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4-1,"")</f>
-        <v>43376</v>
+        <v>44958</v>
       </c>
       <c r="F4" s="17">
         <f>IF(B4="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B4,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
@@ -2259,18 +2622,18 @@
       </c>
       <c r="C5" s="19">
         <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",D5&lt;&gt;""),C4+D4,"")</f>
-        <v>43377</v>
+        <v>44959</v>
       </c>
       <c r="D5" s="20">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E5" s="21">
         <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5+D5-1,"")</f>
-        <v>43406</v>
+        <v>44972</v>
       </c>
       <c r="F5" s="17">
         <f>IF(B5="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B5,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
@@ -2284,18 +2647,18 @@
       </c>
       <c r="C6" s="19">
         <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;"",D6&lt;&gt;""),C5+D5,"")</f>
-        <v>43407</v>
+        <v>44973</v>
       </c>
       <c r="D6" s="20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="21">
         <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;""),C6+D6-1,"")</f>
-        <v>43436</v>
+        <v>44997</v>
       </c>
       <c r="F6" s="17">
         <f>IF(B6="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B6,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
@@ -2309,18 +2672,18 @@
       </c>
       <c r="C7" s="19">
         <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;"",D7&lt;&gt;""),C6+D6,"")</f>
-        <v>43437</v>
+        <v>44998</v>
       </c>
       <c r="D7" s="20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="21">
         <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7+D7-1,"")</f>
-        <v>43466</v>
+        <v>45022</v>
       </c>
       <c r="F7" s="17">
         <f>IF(B7="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B7,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
@@ -2329,102 +2692,117 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C11" si="0">IF(AND(C7&lt;&gt;"",D7&lt;&gt;"",D8&lt;&gt;""),C7+D7,"")</f>
+        <v>45023</v>
+      </c>
+      <c r="D8" s="20">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:E11" si="1">IF(AND(C8&lt;&gt;"",D8&lt;&gt;""),C8+D8-1,"")</f>
+        <v>45047</v>
+      </c>
+      <c r="F8" s="17">
+        <f>IF(B8="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B8,'Backlog del Producto'!J$7:J$130))</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="str">
-        <f t="shared" ref="B9:B17" si="0">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),B8+1,"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="19" t="str">
-        <f t="shared" ref="C9:C17" si="1">IF(AND(C8&lt;&gt;"",D8&lt;&gt;"",D9&lt;&gt;""),C8+D8,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="str">
-        <f t="shared" ref="E9:E17" si="2">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9+D9-1,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="17" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B9,'Backlog del Producto'!J$8:J$130))</f>
-        <v/>
-      </c>
-      <c r="G9" s="18" t="str">
-        <f t="shared" ref="G9:G17" si="3">IF(AND(OR(G8="Planned",G8="Ongoing"),D9&lt;&gt;""),"Planned","Unplanned")</f>
-        <v>Unplanned</v>
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>45048</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="1"/>
+        <v>45049</v>
+      </c>
+      <c r="F9" s="17">
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B9,'Backlog del Producto'!J$7:J$130))</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="19" t="str">
+        <v>45050</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F10" s="17" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B10,'Backlog del Producto'!J$8:J$130))</f>
-        <v/>
-      </c>
-      <c r="G10" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Unplanned</v>
+        <v>45051</v>
+      </c>
+      <c r="F10" s="17">
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B10,'Backlog del Producto'!J$7:J$130))</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="19" t="str">
+        <v>45052</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F11" s="17" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B11,'Backlog del Producto'!J$8:J$130))</f>
-        <v/>
-      </c>
-      <c r="G11" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Unplanned</v>
+        <v>45053</v>
+      </c>
+      <c r="F11" s="17">
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B11,'Backlog del Producto'!J$7:J$130))</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B12:B17" si="2">IF(AND(C12&lt;&gt;"",D12&lt;&gt;""),B11+1,"")</f>
         <v/>
       </c>
       <c r="C12" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C12:C17" si="3">IF(AND(C11&lt;&gt;"",D11&lt;&gt;"",D12&lt;&gt;""),C11+D11,"")</f>
         <v/>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E12:E17" si="4">IF(AND(C12&lt;&gt;"",D12&lt;&gt;""),C12+D12-1,"")</f>
         <v/>
       </c>
       <c r="F12" s="17" t="str">
@@ -2432,7 +2810,7 @@
         <v/>
       </c>
       <c r="G12" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G12:G17" si="5">IF(AND(OR(G11="Planned",G11="Ongoing"),D12&lt;&gt;""),"Planned","Unplanned")</f>
         <v>Unplanned</v>
       </c>
       <c r="H12" s="20"/>
@@ -2440,16 +2818,16 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C13" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F13" s="17" t="str">
@@ -2457,7 +2835,7 @@
         <v/>
       </c>
       <c r="G13" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Unplanned</v>
       </c>
       <c r="H13" s="20"/>
@@ -2465,16 +2843,16 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C14" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F14" s="17" t="str">
@@ -2482,7 +2860,7 @@
         <v/>
       </c>
       <c r="G14" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Unplanned</v>
       </c>
       <c r="H14" s="20"/>
@@ -2490,16 +2868,16 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C15" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F15" s="17" t="str">
@@ -2507,7 +2885,7 @@
         <v/>
       </c>
       <c r="G15" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Unplanned</v>
       </c>
       <c r="H15" s="20"/>
@@ -2515,16 +2893,16 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C16" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F16" s="17" t="str">
@@ -2532,7 +2910,7 @@
         <v/>
       </c>
       <c r="G16" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Unplanned</v>
       </c>
       <c r="H16" s="20"/>
@@ -2540,16 +2918,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C17" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F17" s="17" t="str">
@@ -2557,7 +2935,7 @@
         <v/>
       </c>
       <c r="G17" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Unplanned</v>
       </c>
       <c r="H17" s="20"/>
@@ -2819,153 +3197,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
-    <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Identificador persistente" ma:description="Mantener el identificador al agregar." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959CDC92-A2D2-49A2-AF46-B019E8B2B1B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959CDC92-A2D2-49A2-AF46-B019E8B2B1B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2979,15 +3227,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2998,22 +3247,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02. PLANIFICACION/Backlog Detallado del Producto.xlsx
+++ b/02. PLANIFICACION/Backlog Detallado del Producto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="7320" tabRatio="522"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="7320" tabRatio="522" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="8" r:id="rId1"/>
@@ -736,6 +736,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -765,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,8 +1348,8 @@
   </sheetPr>
   <dimension ref="B1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1384,14 +1384,14 @@
       </c>
     </row>
     <row r="2" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="35"/>
@@ -1408,14 +1408,14 @@
       </c>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="35"/>
@@ -1452,25 +1452,25 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="54" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
@@ -1541,7 +1541,7 @@
       <c r="J7" s="8">
         <v>30</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="46" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="8">
@@ -1580,7 +1580,7 @@
       <c r="J8" s="8">
         <v>40</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="46" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="8">
@@ -1619,7 +1619,7 @@
       <c r="J9" s="8">
         <v>25</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="46" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="8">
@@ -1658,7 +1658,7 @@
       <c r="J10" s="8">
         <v>40</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="46" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="8">
@@ -1697,7 +1697,7 @@
       <c r="J11" s="8">
         <v>40</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="46" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8">
@@ -1736,7 +1736,7 @@
       <c r="J12" s="8">
         <v>40</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="46" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="8">
@@ -1775,7 +1775,7 @@
       <c r="J13" s="8">
         <v>10</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="46" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="8">
@@ -1814,7 +1814,7 @@
       <c r="J14" s="8">
         <v>10</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="8">
@@ -1853,7 +1853,7 @@
       <c r="J15" s="8">
         <v>10</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="46" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="8">
@@ -2522,7 +2522,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2997,6 +2997,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3245187f-2b70-4b96-af74-b65b25777eca" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="100486ed-dfc5-4b43-a390-ed80e6fa3473">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ECBD21C84E4C4B48B27A6166FAC051E5" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bb6739421a50b20a8dee76844e41c5f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="100486ed-dfc5-4b43-a390-ed80e6fa3473" xmlns:ns3="3245187f-2b70-4b96-af74-b65b25777eca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093860096c687094a446cbcfc6e32844" ns2:_="" ns3:_="">
     <xsd:import namespace="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
@@ -3173,31 +3197,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3245187f-2b70-4b96-af74-b65b25777eca" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="100486ed-dfc5-4b43-a390-ed80e6fa3473">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959CDC92-A2D2-49A2-AF46-B019E8B2B1B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3214,37 +3247,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="100486ed-dfc5-4b43-a390-ed80e6fa3473"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3245187f-2b70-4b96-af74-b65b25777eca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>